--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruker</t>
+          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -540,6 +540,20 @@
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>Millipore</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Waters</t>
         </is>
@@ -774,7 +788,7 @@
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$1</formula1>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Negative ion mode</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>MS1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -468,10 +473,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MS3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -490,10 +500,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MS2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -510,7 +525,7 @@
           <t>Thermo Fisher Scientific</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -527,7 +542,7 @@
           <t>Agilent Technologies</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -570,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,12 +693,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -696,19 +711,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM545.ZSGT.679</t>
+          <t>HBM334.DQWS.354</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM334.DQWS.354</t>
         </is>
       </c>
     </row>
@@ -720,14 +739,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -743,12 +758,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>self-packed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -766,12 +781,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -781,20 +796,69 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HBM545.ZSGT.679</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HBM545.ZSGT.679</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E9"/>
-  <dataValidations count="4">
-    <dataValidation sqref="D2 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E11"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -913,7 +977,7 @@
   <autoFilter ref="A1:D5"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>MS1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -466,22 +461,17 @@
           <t>TWIMS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IonOpticks</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>MS3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -493,22 +483,17 @@
           <t>DTIMS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Evosep</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -520,12 +505,7 @@
           <t>SLIM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -537,12 +517,7 @@
           <t>TIMS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -552,25 +527,6 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>FAIMS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -585,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,12 +603,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -670,12 +626,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -693,12 +649,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -711,23 +667,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM334.DQWS.354</t>
+          <t>HBM545.ZSGT.679</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM334.DQWS.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
         </is>
       </c>
     </row>
@@ -739,10 +691,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -758,12 +714,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -781,12 +737,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -796,69 +752,20 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
-  <dataValidations count="5">
-    <dataValidation sqref="D2 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E9"/>
+  <dataValidations count="4">
+    <dataValidation sqref="D2 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$8</formula1>
+    <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$1</formula1>
+    <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -977,7 +884,7 @@
   <autoFilter ref="A1:D5"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$5</formula1>
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MS1</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>hour</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MS3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
@@ -505,7 +490,7 @@
           <t>SLIM</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -517,7 +502,7 @@
           <t>TIMS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -541,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,23 +629,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM334.DQWS.354</t>
+          <t>HBM545.ZSGT.679</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM334.DQWS.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
         </is>
       </c>
     </row>
@@ -672,10 +653,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -691,12 +676,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -706,66 +691,17 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E9"/>
-  <dataValidations count="4">
-    <dataValidation sqref="D2 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E7"/>
+  <dataValidations count="3">
+    <dataValidation sqref="D2 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5 D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -884,7 +820,7 @@
   <autoFilter ref="A1:D5"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>Negative ion mode</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -456,12 +451,12 @@
           <t>TWIMS</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Positive ion mode</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -473,12 +468,12 @@
           <t>DTIMS</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Negative and positive ion mode</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -490,7 +485,7 @@
           <t>SLIM</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -502,7 +497,7 @@
           <t>TIMS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -526,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,12 +583,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -606,23 +601,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM334.DQWS.354</t>
+          <t>HBM545.ZSGT.679</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM334.DQWS.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
         </is>
       </c>
     </row>
@@ -634,10 +625,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -645,63 +640,14 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E7"/>
-  <dataValidations count="3">
-    <dataValidation sqref="D2 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E5"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2 D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$1</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4 D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
+    <dataValidation sqref="D3 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -820,7 +766,7 @@
   <autoFilter ref="A1:D5"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>IonOpticks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -485,6 +485,11 @@
           <t>SLIM</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
@@ -497,6 +502,11 @@
           <t>TIMS</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agilent Technologies</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
@@ -507,6 +517,25 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>FAIMS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Millipore</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -583,12 +612,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>self-packed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -625,12 +654,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>self-packed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -647,7 +676,7 @@
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$3</formula1>
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
+++ b/metadata/lcms/todo/TTD - Pacific Northwest National Laboratory (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$3</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>In-House</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>hour</t>
         </is>
       </c>
@@ -453,11 +448,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
@@ -470,11 +460,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evosep</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
@@ -487,11 +472,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>day</t>
         </is>
       </c>
@@ -504,11 +484,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>minute</t>
         </is>
       </c>
@@ -517,25 +492,6 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>FAIMS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -550,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,76 +563,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM334.DQWS.354</t>
+          <t>HBM545.ZSGT.679</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM334.DQWS.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM545.ZSGT.679</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>self-packed</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZSGT.679</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E5"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E3"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +702,7 @@
   <autoFilter ref="A1:D5"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
